--- a/InputData/bldgs/BFoCSbQL/BAU Frac of Components Sold by Quality Lvl.xlsx
+++ b/InputData/bldgs/BFoCSbQL/BAU Frac of Components Sold by Quality Lvl.xlsx
@@ -5,25 +5,36 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\bldgs\BFoCSbQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Documents\Regional Adaptation Work\Texas\Texas EPS\InputData\bldgs\BFoCSbQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="20115" windowHeight="9780"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="BFoCSbQL-urban-residential" sheetId="3" r:id="rId3"/>
-    <sheet name="BFoCSbQL-rural-residential" sheetId="5" r:id="rId4"/>
-    <sheet name="BFoCSbQL-commercial" sheetId="4" r:id="rId5"/>
+    <sheet name="Texas Notes" sheetId="6" r:id="rId3"/>
+    <sheet name="BFoCSbQL-urban-residential" sheetId="3" r:id="rId4"/>
+    <sheet name="BFoCSbQL-rural-residential" sheetId="5" r:id="rId5"/>
+    <sheet name="BFoCSbQL-commercial" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="96">
   <si>
     <t>Source:</t>
   </si>
@@ -266,6 +277,51 @@
   </si>
   <si>
     <t>for energy efficient rebates.</t>
+  </si>
+  <si>
+    <t>So, this is basically an estimation of what hardware components of different appliances are</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eligible for an energy start rebate. </t>
+  </si>
+  <si>
+    <t>Their method makes sense to me. They take a weighted average of the sales of different appliance components</t>
+  </si>
+  <si>
+    <t>multiplied by the percentage of those components that qualify for an energy star rebate.</t>
+  </si>
+  <si>
+    <t>The data source they use (the Building Energy Data Book) might be a bit dated (2011)</t>
+  </si>
+  <si>
+    <t>The only Texas specific data it has is that 43% of new houses in Texas are energy star qualified (vs. 24% for the rest of the US.)</t>
+  </si>
+  <si>
+    <t>but I’m not sure if that translates to the other numbers being used in this study.</t>
+  </si>
+  <si>
+    <t>One change I did make</t>
+  </si>
+  <si>
+    <t>I removed oil boilers, oil furnaces, and gas furnaces from the calculations for the heating sector</t>
+  </si>
+  <si>
+    <t>since those technologies are really uncommon in Texas</t>
+  </si>
+  <si>
+    <t>source:</t>
+  </si>
+  <si>
+    <t>https://resstock.nrel.gov/dataviewer/efs_v2_base#building-characteristics</t>
+  </si>
+  <si>
+    <t>in the residential sector, Texas heating is 58% gas, 37% electricity, 2% propane, 0% oil</t>
+  </si>
+  <si>
+    <t>in the residential sector, Texas natural gas is not used for boilers</t>
+  </si>
+  <si>
+    <t>wasn't able to find newer data on %energy star market share, though I suspect it is higher than it was in 2011.</t>
   </si>
 </sst>
 </file>
@@ -308,7 +364,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,6 +380,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,7 +412,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -381,6 +443,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -689,21 +757,21 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="54.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.73046875" customWidth="1"/>
+    <col min="2" max="2" width="54.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,52 +779,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="2">
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="17" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="17" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -772,45 +840,45 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="59.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.86328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.265625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.73046875" customWidth="1"/>
+    <col min="6" max="6" width="59.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -830,7 +898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -850,12 +918,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="2">
-        <v>192000</v>
+      <c r="C9" s="18">
+        <v>0</v>
       </c>
       <c r="D9" s="2">
         <v>0.52</v>
@@ -867,12 +935,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="2">
-        <v>123000</v>
+      <c r="C10" s="18">
+        <v>0</v>
       </c>
       <c r="D10" s="2">
         <v>0.61</v>
@@ -884,13 +952,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="8">
-        <v>56000</v>
+      <c r="C11" s="19">
+        <v>0</v>
       </c>
       <c r="D11" s="8">
         <v>0.36</v>
@@ -902,7 +970,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="s">
         <v>65</v>
       </c>
@@ -922,7 +990,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="12"/>
       <c r="B13" s="12" t="s">
         <v>13</v>
@@ -940,7 +1008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="7"/>
       <c r="B14" s="7" t="s">
         <v>14</v>
@@ -958,7 +1026,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -978,7 +1046,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -999,7 +1067,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>27</v>
       </c>
@@ -1017,7 +1085,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>28</v>
       </c>
@@ -1035,7 +1103,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1055,7 +1123,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>34</v>
       </c>
@@ -1072,7 +1140,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>36</v>
       </c>
@@ -1089,7 +1157,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>40</v>
       </c>
@@ -1106,7 +1174,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>41</v>
       </c>
@@ -1123,7 +1191,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>42</v>
       </c>
@@ -1140,7 +1208,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>33</v>
       </c>
@@ -1157,7 +1225,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="7"/>
       <c r="B26" s="7" t="s">
         <v>35</v>
@@ -1175,7 +1243,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -1195,7 +1263,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>45</v>
       </c>
@@ -1212,7 +1280,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>46</v>
       </c>
@@ -1229,7 +1297,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>47</v>
       </c>
@@ -1246,7 +1314,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>48</v>
       </c>
@@ -1263,7 +1331,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1284,7 +1352,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>56</v>
       </c>
@@ -1302,7 +1370,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>57</v>
       </c>
@@ -1320,7 +1388,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>58</v>
       </c>
@@ -1338,7 +1406,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
         <v>59</v>
       </c>
@@ -1356,7 +1424,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
         <v>60</v>
       </c>
@@ -1374,7 +1442,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
         <v>61</v>
       </c>
@@ -1421,115 +1489,98 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="11">
-        <f>1-C2</f>
-        <v>0.40218068535825546</v>
-      </c>
-      <c r="C2" s="11">
-        <f>SUMPRODUCT(Data!C8:C11,Data!D8:D11)/SUM(Data!C8:C11)</f>
-        <v>0.59781931464174454</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="11">
-        <f t="shared" ref="B3:B7" si="0">1-C3</f>
-        <v>0.73</v>
-      </c>
-      <c r="C3">
-        <f>Data!D12</f>
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="15">
-        <f t="shared" si="0"/>
-        <v>0.56609034267912772</v>
-      </c>
-      <c r="C4" s="15">
-        <f>AVERAGE(C2:C3)</f>
-        <v>0.43390965732087228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="11">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="C5">
-        <f>Data!D15</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="11">
-        <f t="shared" si="0"/>
-        <v>0.32982758620689656</v>
-      </c>
-      <c r="C6" s="11">
-        <f>SUMPRODUCT(Data!C16:C18,Data!D16:D18)/SUM(Data!C16:C18)</f>
-        <v>0.67017241379310344</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="11">
-        <f t="shared" si="0"/>
-        <v>0.48876582108507738</v>
-      </c>
-      <c r="C7" s="11">
-        <f>SUMPRODUCT(Data!C27:C31,Data!D27:D31)/SUM(Data!C27:C31)</f>
-        <v>0.51123417891492262</v>
-      </c>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C14" r:id="rId1" location="building-characteristics" display="https://resstock.nrel.gov/dataviewer/efs_v2_base - building-characteristics"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="B2:C3 B5:C7 B4" formulaRange="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1540,16 +1591,18 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.86328125" customWidth="1"/>
+    <col min="2" max="2" width="20.86328125" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>78</v>
       </c>
@@ -1560,20 +1613,20 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="11">
         <f>1-C2</f>
-        <v>0.40218068535825546</v>
+        <v>0.39</v>
       </c>
       <c r="C2" s="11">
         <f>SUMPRODUCT(Data!C8:C11,Data!D8:D11)/SUM(Data!C8:C11)</f>
-        <v>0.59781931464174454</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -1586,20 +1639,20 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>67</v>
       </c>
       <c r="B4" s="15">
         <f t="shared" si="0"/>
-        <v>0.56609034267912772</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C4" s="15">
         <f>AVERAGE(C2:C3)</f>
-        <v>0.43390965732087228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1612,7 +1665,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1625,7 +1678,7 @@
         <v>0.67017241379310344</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1641,6 +1694,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B2:C3 B5:C7 B4" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1653,14 +1709,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.86328125" customWidth="1"/>
+    <col min="2" max="2" width="20.86328125" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>78</v>
       </c>
@@ -1671,20 +1727,20 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="11">
         <f>1-C2</f>
-        <v>0.40218068535825546</v>
+        <v>0.39</v>
       </c>
       <c r="C2" s="11">
         <f>SUMPRODUCT(Data!C8:C11,Data!D8:D11)/SUM(Data!C8:C11)</f>
-        <v>0.59781931464174454</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -1697,20 +1753,20 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>67</v>
       </c>
       <c r="B4" s="15">
         <f t="shared" si="0"/>
-        <v>0.56609034267912772</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C4" s="15">
         <f>AVERAGE(C2:C3)</f>
-        <v>0.43390965732087228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1723,7 +1779,118 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.32982758620689656</v>
+      </c>
+      <c r="C6" s="11">
+        <f>SUMPRODUCT(Data!C16:C18,Data!D16:D18)/SUM(Data!C16:C18)</f>
+        <v>0.67017241379310344</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.48876582108507738</v>
+      </c>
+      <c r="C7" s="11">
+        <f>SUMPRODUCT(Data!C27:C31,Data!D27:D31)/SUM(Data!C27:C31)</f>
+        <v>0.51123417891492262</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="28.86328125" customWidth="1"/>
+    <col min="2" max="2" width="20.86328125" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="11">
+        <f>1-C2</f>
+        <v>0.39</v>
+      </c>
+      <c r="C2" s="11">
+        <f>SUMPRODUCT(Data!C8:C11,Data!D8:D11)/SUM(Data!C8:C11)</f>
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="11">
+        <f t="shared" ref="B3:B7" si="0">1-C3</f>
+        <v>0.73</v>
+      </c>
+      <c r="C3">
+        <f>Data!D12</f>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="15">
+        <f t="shared" si="0"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C4" s="15">
+        <f>AVERAGE(C2:C3)</f>
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="C5">
+        <f>Data!D15</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1736,7 +1903,7 @@
         <v>0.46288946910356832</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>4</v>
       </c>

--- a/InputData/bldgs/BFoCSbQL/BAU Frac of Components Sold by Quality Lvl.xlsx
+++ b/InputData/bldgs/BFoCSbQL/BAU Frac of Components Sold by Quality Lvl.xlsx
@@ -5,36 +5,25 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Documents\Regional Adaptation Work\Texas\Texas EPS\InputData\bldgs\BFoCSbQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\bldgs\BFoCSbQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="20115" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Texas Notes" sheetId="6" r:id="rId3"/>
-    <sheet name="BFoCSbQL-urban-residential" sheetId="3" r:id="rId4"/>
-    <sheet name="BFoCSbQL-rural-residential" sheetId="5" r:id="rId5"/>
-    <sheet name="BFoCSbQL-commercial" sheetId="4" r:id="rId6"/>
+    <sheet name="BFoCSbQL-urban-residential" sheetId="3" r:id="rId3"/>
+    <sheet name="BFoCSbQL-rural-residential" sheetId="5" r:id="rId4"/>
+    <sheet name="BFoCSbQL-commercial" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="81">
   <si>
     <t>Source:</t>
   </si>
@@ -277,51 +266,6 @@
   </si>
   <si>
     <t>for energy efficient rebates.</t>
-  </si>
-  <si>
-    <t>So, this is basically an estimation of what hardware components of different appliances are</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eligible for an energy start rebate. </t>
-  </si>
-  <si>
-    <t>Their method makes sense to me. They take a weighted average of the sales of different appliance components</t>
-  </si>
-  <si>
-    <t>multiplied by the percentage of those components that qualify for an energy star rebate.</t>
-  </si>
-  <si>
-    <t>The data source they use (the Building Energy Data Book) might be a bit dated (2011)</t>
-  </si>
-  <si>
-    <t>The only Texas specific data it has is that 43% of new houses in Texas are energy star qualified (vs. 24% for the rest of the US.)</t>
-  </si>
-  <si>
-    <t>but I’m not sure if that translates to the other numbers being used in this study.</t>
-  </si>
-  <si>
-    <t>One change I did make</t>
-  </si>
-  <si>
-    <t>I removed oil boilers, oil furnaces, and gas furnaces from the calculations for the heating sector</t>
-  </si>
-  <si>
-    <t>since those technologies are really uncommon in Texas</t>
-  </si>
-  <si>
-    <t>source:</t>
-  </si>
-  <si>
-    <t>https://resstock.nrel.gov/dataviewer/efs_v2_base#building-characteristics</t>
-  </si>
-  <si>
-    <t>in the residential sector, Texas heating is 58% gas, 37% electricity, 2% propane, 0% oil</t>
-  </si>
-  <si>
-    <t>in the residential sector, Texas natural gas is not used for boilers</t>
-  </si>
-  <si>
-    <t>wasn't able to find newer data on %energy star market share, though I suspect it is higher than it was in 2011.</t>
   </si>
 </sst>
 </file>
@@ -364,7 +308,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,12 +324,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,7 +350,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -443,12 +381,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -757,21 +689,21 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.73046875" customWidth="1"/>
-    <col min="2" max="2" width="54.265625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="54.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -779,52 +711,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -840,45 +772,45 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="23.86328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.265625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.73046875" customWidth="1"/>
-    <col min="6" max="6" width="59.86328125" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="59.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -898,7 +830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -918,12 +850,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="18">
-        <v>0</v>
+      <c r="C9" s="2">
+        <v>192000</v>
       </c>
       <c r="D9" s="2">
         <v>0.52</v>
@@ -935,12 +867,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="18">
-        <v>0</v>
+      <c r="C10" s="2">
+        <v>123000</v>
       </c>
       <c r="D10" s="2">
         <v>0.61</v>
@@ -952,13 +884,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="19">
-        <v>0</v>
+      <c r="C11" s="8">
+        <v>56000</v>
       </c>
       <c r="D11" s="8">
         <v>0.36</v>
@@ -970,7 +902,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>65</v>
       </c>
@@ -990,7 +922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="12" t="s">
         <v>13</v>
@@ -1008,7 +940,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7" t="s">
         <v>14</v>
@@ -1026,7 +958,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -1046,7 +978,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1067,7 +999,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>27</v>
       </c>
@@ -1085,7 +1017,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>28</v>
       </c>
@@ -1103,7 +1035,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1123,7 +1055,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>34</v>
       </c>
@@ -1140,7 +1072,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>36</v>
       </c>
@@ -1157,7 +1089,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>40</v>
       </c>
@@ -1174,7 +1106,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>41</v>
       </c>
@@ -1191,7 +1123,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>42</v>
       </c>
@@ -1208,7 +1140,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>33</v>
       </c>
@@ -1225,7 +1157,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7" t="s">
         <v>35</v>
@@ -1243,7 +1175,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -1263,7 +1195,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>45</v>
       </c>
@@ -1280,7 +1212,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>46</v>
       </c>
@@ -1297,7 +1229,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>47</v>
       </c>
@@ -1314,7 +1246,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>48</v>
       </c>
@@ -1331,7 +1263,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1352,7 +1284,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>56</v>
       </c>
@@ -1370,7 +1302,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>57</v>
       </c>
@@ -1388,7 +1320,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>58</v>
       </c>
@@ -1406,7 +1338,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>59</v>
       </c>
@@ -1424,7 +1356,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>60</v>
       </c>
@@ -1442,7 +1374,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>61</v>
       </c>
@@ -1489,98 +1421,115 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+        <v>66</v>
+      </c>
+      <c r="B2" s="11">
+        <f>1-C2</f>
+        <v>0.40218068535825546</v>
+      </c>
+      <c r="C2" s="11">
+        <f>SUMPRODUCT(Data!C8:C11,Data!D8:D11)/SUM(Data!C8:C11)</f>
+        <v>0.59781931464174454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="11">
+        <f t="shared" ref="B3:B7" si="0">1-C3</f>
+        <v>0.73</v>
+      </c>
+      <c r="C3">
+        <f>Data!D12</f>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+        <v>67</v>
+      </c>
+      <c r="B4" s="15">
+        <f t="shared" si="0"/>
+        <v>0.56609034267912772</v>
+      </c>
+      <c r="C4" s="15">
+        <f>AVERAGE(C2:C3)</f>
+        <v>0.43390965732087228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="C5">
+        <f>Data!D15</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.32982758620689656</v>
+      </c>
+      <c r="C6" s="11">
+        <f>SUMPRODUCT(Data!C16:C18,Data!D16:D18)/SUM(Data!C16:C18)</f>
+        <v>0.67017241379310344</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.48876582108507738</v>
+      </c>
+      <c r="C7" s="11">
+        <f>SUMPRODUCT(Data!C27:C31,Data!D27:D31)/SUM(Data!C27:C31)</f>
+        <v>0.51123417891492262</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1" location="building-characteristics" display="https://resstock.nrel.gov/dataviewer/efs_v2_base - building-characteristics"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B2:C3 B5:C7 B4" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1591,18 +1540,16 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.86328125" customWidth="1"/>
-    <col min="2" max="2" width="20.86328125" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>78</v>
       </c>
@@ -1613,20 +1560,20 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="11">
         <f>1-C2</f>
-        <v>0.39</v>
+        <v>0.40218068535825546</v>
       </c>
       <c r="C2" s="11">
         <f>SUMPRODUCT(Data!C8:C11,Data!D8:D11)/SUM(Data!C8:C11)</f>
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.59781931464174454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -1639,20 +1586,20 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>67</v>
       </c>
       <c r="B4" s="15">
         <f t="shared" si="0"/>
-        <v>0.56000000000000005</v>
+        <v>0.56609034267912772</v>
       </c>
       <c r="C4" s="15">
         <f>AVERAGE(C2:C3)</f>
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.43390965732087228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1665,7 +1612,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1678,7 +1625,7 @@
         <v>0.67017241379310344</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1694,9 +1641,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="B2:C3 B5:C7 B4" formulaRange="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1709,14 +1653,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.86328125" customWidth="1"/>
-    <col min="2" max="2" width="20.86328125" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>78</v>
       </c>
@@ -1727,20 +1671,20 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="11">
         <f>1-C2</f>
-        <v>0.39</v>
+        <v>0.40218068535825546</v>
       </c>
       <c r="C2" s="11">
         <f>SUMPRODUCT(Data!C8:C11,Data!D8:D11)/SUM(Data!C8:C11)</f>
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.59781931464174454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -1753,20 +1697,20 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>67</v>
       </c>
       <c r="B4" s="15">
         <f t="shared" si="0"/>
-        <v>0.56000000000000005</v>
+        <v>0.56609034267912772</v>
       </c>
       <c r="C4" s="15">
         <f>AVERAGE(C2:C3)</f>
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.43390965732087228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1779,118 +1723,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="11">
-        <f t="shared" si="0"/>
-        <v>0.32982758620689656</v>
-      </c>
-      <c r="C6" s="11">
-        <f>SUMPRODUCT(Data!C16:C18,Data!D16:D18)/SUM(Data!C16:C18)</f>
-        <v>0.67017241379310344</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="11">
-        <f t="shared" si="0"/>
-        <v>0.48876582108507738</v>
-      </c>
-      <c r="C7" s="11">
-        <f>SUMPRODUCT(Data!C27:C31,Data!D27:D31)/SUM(Data!C27:C31)</f>
-        <v>0.51123417891492262</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="28.86328125" customWidth="1"/>
-    <col min="2" max="2" width="20.86328125" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="11">
-        <f>1-C2</f>
-        <v>0.39</v>
-      </c>
-      <c r="C2" s="11">
-        <f>SUMPRODUCT(Data!C8:C11,Data!D8:D11)/SUM(Data!C8:C11)</f>
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="11">
-        <f t="shared" ref="B3:B7" si="0">1-C3</f>
-        <v>0.73</v>
-      </c>
-      <c r="C3">
-        <f>Data!D12</f>
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="15">
-        <f t="shared" si="0"/>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="C4" s="15">
-        <f>AVERAGE(C2:C3)</f>
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="11">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="C5">
-        <f>Data!D15</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1903,7 +1736,7 @@
         <v>0.46288946910356832</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>

--- a/InputData/bldgs/BFoCSbQL/BAU Frac of Components Sold by Quality Lvl.xlsx
+++ b/InputData/bldgs/BFoCSbQL/BAU Frac of Components Sold by Quality Lvl.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Documents\Regional Adaptation Work\Texas\Texas EPS\InputData\bldgs\BFoCSbQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmr4337\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="BFoCSbQL-rural-residential" sheetId="5" r:id="rId5"/>
     <sheet name="BFoCSbQL-commercial" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -279,33 +279,15 @@
     <t>for energy efficient rebates.</t>
   </si>
   <si>
-    <t>So, this is basically an estimation of what hardware components of different appliances are</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eligible for an energy start rebate. </t>
-  </si>
-  <si>
-    <t>Their method makes sense to me. They take a weighted average of the sales of different appliance components</t>
-  </si>
-  <si>
     <t>multiplied by the percentage of those components that qualify for an energy star rebate.</t>
   </si>
   <si>
-    <t>The data source they use (the Building Energy Data Book) might be a bit dated (2011)</t>
-  </si>
-  <si>
     <t>The only Texas specific data it has is that 43% of new houses in Texas are energy star qualified (vs. 24% for the rest of the US.)</t>
   </si>
   <si>
     <t>but I’m not sure if that translates to the other numbers being used in this study.</t>
   </si>
   <si>
-    <t>One change I did make</t>
-  </si>
-  <si>
-    <t>I removed oil boilers, oil furnaces, and gas furnaces from the calculations for the heating sector</t>
-  </si>
-  <si>
     <t>since those technologies are really uncommon in Texas</t>
   </si>
   <si>
@@ -321,7 +303,25 @@
     <t>in the residential sector, Texas natural gas is not used for boilers</t>
   </si>
   <si>
-    <t>wasn't able to find newer data on %energy star market share, though I suspect it is higher than it was in 2011.</t>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>Changes from US to Texas</t>
+  </si>
+  <si>
+    <t>Removed oil boilers, oil furnaces, and gas furnaces from the calculations for the heating sector</t>
+  </si>
+  <si>
+    <t>**wasn't able to find newer data on %energy star market share.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is basically an estimation of what hardware components of different appliances are eligible for an energy start rebate. </t>
+  </si>
+  <si>
+    <t>This sheet takes a weighted average of the sales of different appliance components</t>
+  </si>
+  <si>
+    <t>The data source used (the Building Energy Data Book) might be a bit dated (2011)</t>
   </si>
 </sst>
 </file>
@@ -756,22 +756,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.73046875" customWidth="1"/>
-    <col min="2" max="2" width="54.265625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="54.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -779,52 +779,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -843,42 +843,42 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="23.86328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.265625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.73046875" customWidth="1"/>
-    <col min="6" max="6" width="59.86328125" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="59.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -898,7 +898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -918,7 +918,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>16</v>
       </c>
@@ -935,7 +935,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>17</v>
       </c>
@@ -952,7 +952,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
         <v>18</v>
@@ -970,7 +970,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>65</v>
       </c>
@@ -990,7 +990,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="12" t="s">
         <v>13</v>
@@ -1008,7 +1008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7" t="s">
         <v>14</v>
@@ -1026,7 +1026,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>27</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>28</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>34</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>36</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>40</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>41</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>42</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>33</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7" t="s">
         <v>35</v>
@@ -1243,7 +1243,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>45</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>46</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>47</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>48</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>56</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>57</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>58</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>59</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>60</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>61</v>
       </c>
@@ -1491,94 +1491,98 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="C12" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="4" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
-        <v>93</v>
-      </c>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
-        <v>94</v>
-      </c>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>95</v>
-      </c>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1" location="building-characteristics" display="https://resstock.nrel.gov/dataviewer/efs_v2_base - building-characteristics"/>
+    <hyperlink ref="C12" r:id="rId1" location="building-characteristics" display="https://resstock.nrel.gov/dataviewer/efs_v2_base - building-characteristics"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1595,14 +1599,14 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.86328125" customWidth="1"/>
-    <col min="2" max="2" width="20.86328125" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>78</v>
       </c>
@@ -1613,7 +1617,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -1626,7 +1630,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -1639,7 +1643,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -1652,7 +1656,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1665,7 +1669,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1678,7 +1682,7 @@
         <v>0.67017241379310344</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1709,14 +1713,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.86328125" customWidth="1"/>
-    <col min="2" max="2" width="20.86328125" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>78</v>
       </c>
@@ -1727,7 +1731,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -1740,7 +1744,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -1753,7 +1757,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -1766,7 +1770,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1779,7 +1783,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1792,7 +1796,7 @@
         <v>0.67017241379310344</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1820,14 +1824,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.86328125" customWidth="1"/>
-    <col min="2" max="2" width="20.86328125" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>78</v>
       </c>
@@ -1838,7 +1842,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -1851,7 +1855,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -1864,7 +1868,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -1877,7 +1881,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1890,7 +1894,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1903,7 +1907,7 @@
         <v>0.46288946910356832</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>

--- a/InputData/bldgs/BFoCSbQL/BAU Frac of Components Sold by Quality Lvl.xlsx
+++ b/InputData/bldgs/BFoCSbQL/BAU Frac of Components Sold by Quality Lvl.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmr4337\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\All_states_RMI\template_state\bldgs\BFoCSbQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5714C1CD-7362-4A80-A1C2-1198FC98F4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
+    <workbookView xWindow="1150" yWindow="570" windowWidth="16460" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Texas Notes" sheetId="6" r:id="rId3"/>
-    <sheet name="BFoCSbQL-urban-residential" sheetId="3" r:id="rId4"/>
-    <sheet name="BFoCSbQL-rural-residential" sheetId="5" r:id="rId5"/>
-    <sheet name="BFoCSbQL-commercial" sheetId="4" r:id="rId6"/>
+    <sheet name="BFoCSbQL-urban-residential" sheetId="3" r:id="rId3"/>
+    <sheet name="BFoCSbQL-rural-residential" sheetId="5" r:id="rId4"/>
+    <sheet name="BFoCSbQL-commercial" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="81">
   <si>
     <t>Source:</t>
   </si>
@@ -277,57 +278,12 @@
   </si>
   <si>
     <t>for energy efficient rebates.</t>
-  </si>
-  <si>
-    <t>multiplied by the percentage of those components that qualify for an energy star rebate.</t>
-  </si>
-  <si>
-    <t>The only Texas specific data it has is that 43% of new houses in Texas are energy star qualified (vs. 24% for the rest of the US.)</t>
-  </si>
-  <si>
-    <t>but I’m not sure if that translates to the other numbers being used in this study.</t>
-  </si>
-  <si>
-    <t>since those technologies are really uncommon in Texas</t>
-  </si>
-  <si>
-    <t>source:</t>
-  </si>
-  <si>
-    <t>https://resstock.nrel.gov/dataviewer/efs_v2_base#building-characteristics</t>
-  </si>
-  <si>
-    <t>in the residential sector, Texas heating is 58% gas, 37% electricity, 2% propane, 0% oil</t>
-  </si>
-  <si>
-    <t>in the residential sector, Texas natural gas is not used for boilers</t>
-  </si>
-  <si>
-    <t>Explanation</t>
-  </si>
-  <si>
-    <t>Changes from US to Texas</t>
-  </si>
-  <si>
-    <t>Removed oil boilers, oil furnaces, and gas furnaces from the calculations for the heating sector</t>
-  </si>
-  <si>
-    <t>**wasn't able to find newer data on %energy star market share.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is basically an estimation of what hardware components of different appliances are eligible for an energy start rebate. </t>
-  </si>
-  <si>
-    <t>This sheet takes a weighted average of the sales of different appliance components</t>
-  </si>
-  <si>
-    <t>The data source used (the Building Energy Data Book) might be a bit dated (2011)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -364,7 +320,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,12 +336,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,7 +362,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -443,12 +393,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -543,6 +488,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -578,6 +540,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -753,25 +732,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="54.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.7265625" customWidth="1"/>
+    <col min="2" max="2" width="54.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="18">
+        <v>44509</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -779,52 +761,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -836,49 +818,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="59.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.81640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.26953125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.7265625" customWidth="1"/>
+    <col min="6" max="6" width="59.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -898,7 +880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -918,12 +900,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="18">
-        <v>0</v>
+      <c r="C9" s="2">
+        <v>192000</v>
       </c>
       <c r="D9" s="2">
         <v>0.52</v>
@@ -935,12 +917,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="18">
-        <v>0</v>
+      <c r="C10" s="2">
+        <v>123000</v>
       </c>
       <c r="D10" s="2">
         <v>0.61</v>
@@ -952,13 +934,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="19">
-        <v>0</v>
+      <c r="C11" s="8">
+        <v>56000</v>
       </c>
       <c r="D11" s="8">
         <v>0.36</v>
@@ -970,7 +952,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>65</v>
       </c>
@@ -990,7 +972,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
       <c r="B13" s="12" t="s">
         <v>13</v>
@@ -1008,7 +990,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
       <c r="B14" s="7" t="s">
         <v>14</v>
@@ -1026,7 +1008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -1046,7 +1028,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1067,7 +1049,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>27</v>
       </c>
@@ -1085,7 +1067,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>28</v>
       </c>
@@ -1103,7 +1085,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1123,7 +1105,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>34</v>
       </c>
@@ -1140,7 +1122,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>36</v>
       </c>
@@ -1157,7 +1139,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>40</v>
       </c>
@@ -1174,7 +1156,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>41</v>
       </c>
@@ -1191,7 +1173,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>42</v>
       </c>
@@ -1208,7 +1190,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>33</v>
       </c>
@@ -1225,7 +1207,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="7"/>
       <c r="B26" s="7" t="s">
         <v>35</v>
@@ -1243,7 +1225,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -1263,7 +1245,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>45</v>
       </c>
@@ -1280,7 +1262,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>46</v>
       </c>
@@ -1297,7 +1279,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>47</v>
       </c>
@@ -1314,7 +1296,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>48</v>
       </c>
@@ -1331,7 +1313,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1352,7 +1334,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>56</v>
       </c>
@@ -1370,7 +1352,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>57</v>
       </c>
@@ -1388,7 +1370,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>58</v>
       </c>
@@ -1406,7 +1388,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>59</v>
       </c>
@@ -1424,7 +1406,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>60</v>
       </c>
@@ -1442,7 +1424,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>61</v>
       </c>
@@ -1462,151 +1444,48 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F12" r:id="rId1"/>
-    <hyperlink ref="F8" r:id="rId2"/>
-    <hyperlink ref="F13" r:id="rId3"/>
-    <hyperlink ref="F14" r:id="rId4"/>
-    <hyperlink ref="F9" r:id="rId5"/>
-    <hyperlink ref="F10" r:id="rId6"/>
-    <hyperlink ref="F11" r:id="rId7"/>
-    <hyperlink ref="F15" r:id="rId8"/>
-    <hyperlink ref="F16" r:id="rId9"/>
-    <hyperlink ref="F17:F18" r:id="rId10" display="http://buildingsdatabook.eren.doe.gov/docs/xls_pdf/9.1.8.xlsx"/>
-    <hyperlink ref="F19" r:id="rId11"/>
-    <hyperlink ref="F27" r:id="rId12"/>
-    <hyperlink ref="F28:F31" r:id="rId13" display="http://buildingsdatabook.eren.doe.gov/docs/xls_pdf/9.1.13.xlsx"/>
-    <hyperlink ref="F20" r:id="rId14"/>
-    <hyperlink ref="F21" r:id="rId15"/>
-    <hyperlink ref="F25" r:id="rId16"/>
-    <hyperlink ref="F26" r:id="rId17"/>
-    <hyperlink ref="F22" r:id="rId18"/>
-    <hyperlink ref="F23" r:id="rId19"/>
-    <hyperlink ref="F24" r:id="rId20"/>
+    <hyperlink ref="F12" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="F8" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="F13" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="F14" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="F9" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="F10" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="F11" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="F15" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="F16" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="F17:F18" r:id="rId10" display="http://buildingsdatabook.eren.doe.gov/docs/xls_pdf/9.1.8.xlsx" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="F19" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="F27" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="F28:F31" r:id="rId13" display="http://buildingsdatabook.eren.doe.gov/docs/xls_pdf/9.1.13.xlsx" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="F20" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="F21" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="F25" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="F26" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="F22" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="F23" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="F24" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="4"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1" location="building-characteristics" display="https://resstock.nrel.gov/dataviewer/efs_v2_base - building-characteristics"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.81640625" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>78</v>
       </c>
@@ -1617,20 +1496,20 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="11">
         <f>1-C2</f>
-        <v>0.39</v>
+        <v>0.40218068535825546</v>
       </c>
       <c r="C2" s="11">
         <f>SUMPRODUCT(Data!C8:C11,Data!D8:D11)/SUM(Data!C8:C11)</f>
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.59781931464174454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -1643,20 +1522,20 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>67</v>
       </c>
       <c r="B4" s="15">
         <f t="shared" si="0"/>
-        <v>0.56000000000000005</v>
+        <v>0.56609034267912772</v>
       </c>
       <c r="C4" s="15">
         <f>AVERAGE(C2:C3)</f>
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.43390965732087228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1669,7 +1548,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1682,7 +1561,7 @@
         <v>0.67017241379310344</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1704,8 +1583,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -1713,14 +1592,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.81640625" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>78</v>
       </c>
@@ -1731,20 +1610,20 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="11">
         <f>1-C2</f>
-        <v>0.39</v>
+        <v>0.40218068535825546</v>
       </c>
       <c r="C2" s="11">
         <f>SUMPRODUCT(Data!C8:C11,Data!D8:D11)/SUM(Data!C8:C11)</f>
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.59781931464174454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -1757,20 +1636,20 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>67</v>
       </c>
       <c r="B4" s="15">
         <f t="shared" si="0"/>
-        <v>0.56000000000000005</v>
+        <v>0.56609034267912772</v>
       </c>
       <c r="C4" s="15">
         <f>AVERAGE(C2:C3)</f>
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.43390965732087228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1783,7 +1662,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1796,7 +1675,7 @@
         <v>0.67017241379310344</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1815,8 +1694,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -1824,14 +1703,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.81640625" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>78</v>
       </c>
@@ -1842,20 +1721,20 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="11">
         <f>1-C2</f>
-        <v>0.39</v>
+        <v>0.40218068535825546</v>
       </c>
       <c r="C2" s="11">
         <f>SUMPRODUCT(Data!C8:C11,Data!D8:D11)/SUM(Data!C8:C11)</f>
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.59781931464174454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -1868,20 +1747,20 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>67</v>
       </c>
       <c r="B4" s="15">
         <f t="shared" si="0"/>
-        <v>0.56000000000000005</v>
+        <v>0.56609034267912772</v>
       </c>
       <c r="C4" s="15">
         <f>AVERAGE(C2:C3)</f>
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.43390965732087228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1894,7 +1773,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1907,7 +1786,7 @@
         <v>0.46288946910356832</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
